--- a/04kappa/fraud_tagger_dataframe_kappa.xlsx
+++ b/04kappa/fraud_tagger_dataframe_kappa.xlsx
@@ -22,97 +22,97 @@
     <t>kappa</t>
   </si>
   <si>
+    <t>jhaskins2013@yahoo.com</t>
+  </si>
+  <si>
+    <t>dai77@purdue.edu</t>
+  </si>
+  <si>
+    <t>mspanier@purdue.edu</t>
+  </si>
+  <si>
+    <t>asapra@purdue.edu</t>
+  </si>
+  <si>
+    <t>zhan2016@purdue.edu</t>
+  </si>
+  <si>
+    <t>reynol79@purdue.edu</t>
+  </si>
+  <si>
+    <t>john1300@purdue.edu</t>
+  </si>
+  <si>
+    <t>wang1768@purdue.edu</t>
+  </si>
+  <si>
     <t>apozivil@purdue.edu</t>
   </si>
   <si>
+    <t>zhu316@purdue.edu</t>
+  </si>
+  <si>
+    <t>cfeurtad@purdue.edu</t>
+  </si>
+  <si>
+    <t>gutier37@purdue.edu</t>
+  </si>
+  <si>
+    <t>zhao393@purdue.edu</t>
+  </si>
+  <si>
+    <t>zheng216@purdue.edu</t>
+  </si>
+  <si>
+    <t>gonza186@purdue.edu</t>
+  </si>
+  <si>
+    <t>schwenk@purdue.edu</t>
+  </si>
+  <si>
+    <t>lo31@purdue.edu</t>
+  </si>
+  <si>
+    <t>hughe146@purdue.edu</t>
+  </si>
+  <si>
+    <t>quinn35@purdue.edu</t>
+  </si>
+  <si>
+    <t>hu417@purdue.edu</t>
+  </si>
+  <si>
+    <t>mmaloof@purdue.edu</t>
+  </si>
+  <si>
+    <t>chen1296@purdue.edu</t>
+  </si>
+  <si>
+    <t>jdenhar@purdue.edu</t>
+  </si>
+  <si>
     <t>feng83@purdue.edu</t>
   </si>
   <si>
-    <t>hu417@purdue.edu</t>
-  </si>
-  <si>
-    <t>cfeurtad@purdue.edu</t>
+    <t>chen1331@purdue.edu</t>
+  </si>
+  <si>
+    <t>fu58@purdue.edu</t>
+  </si>
+  <si>
+    <t>bbrumfi@purdue.edu</t>
   </si>
   <si>
     <t>sruddick@purdue.edu</t>
   </si>
   <si>
-    <t>fu58@purdue.edu</t>
-  </si>
-  <si>
-    <t>hughe146@purdue.edu</t>
-  </si>
-  <si>
-    <t>jdenhar@purdue.edu</t>
-  </si>
-  <si>
-    <t>mmaloof@purdue.edu</t>
+    <t>wang1509@purdue.edu</t>
+  </si>
+  <si>
+    <t>ahould@purdue.edu</t>
   </si>
   <si>
     <t>ddye@purdue.edu</t>
-  </si>
-  <si>
-    <t>wang1509@purdue.edu</t>
-  </si>
-  <si>
-    <t>zheng216@purdue.edu</t>
-  </si>
-  <si>
-    <t>quinn35@purdue.edu</t>
-  </si>
-  <si>
-    <t>wang1768@purdue.edu</t>
-  </si>
-  <si>
-    <t>asapra@purdue.edu</t>
-  </si>
-  <si>
-    <t>reynol79@purdue.edu</t>
-  </si>
-  <si>
-    <t>gutier37@purdue.edu</t>
-  </si>
-  <si>
-    <t>dai77@purdue.edu</t>
-  </si>
-  <si>
-    <t>jhaskins2013@yahoo.com</t>
-  </si>
-  <si>
-    <t>mspanier@purdue.edu</t>
-  </si>
-  <si>
-    <t>zhu316@purdue.edu</t>
-  </si>
-  <si>
-    <t>gonza186@purdue.edu</t>
-  </si>
-  <si>
-    <t>chen1296@purdue.edu</t>
-  </si>
-  <si>
-    <t>ahould@purdue.edu</t>
-  </si>
-  <si>
-    <t>zhao393@purdue.edu</t>
-  </si>
-  <si>
-    <t>schwenk@purdue.edu</t>
-  </si>
-  <si>
-    <t>zhan2016@purdue.edu</t>
-  </si>
-  <si>
-    <t>bbrumfi@purdue.edu</t>
-  </si>
-  <si>
-    <t>lo31@purdue.edu</t>
-  </si>
-  <si>
-    <t>john1300@purdue.edu</t>
-  </si>
-  <si>
-    <t>chen1331@purdue.edu</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.466666666666667</v>
+        <v>0.421052631578947</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -503,7 +503,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.541666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -525,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.545454545454545</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -536,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.417910447761194</v>
+        <v>0.514285714285714</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -547,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.846153846153846</v>
+        <v>0.541666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -558,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.580645161290323</v>
+        <v>0.566666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -569,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.695652173913043</v>
+        <v>0.457627118644068</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -580,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.423076923076923</v>
+        <v>0.466666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -591,7 +591,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.792452830188679</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -602,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.6</v>
+        <v>0.545454545454545</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -613,7 +613,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.566666666666667</v>
+        <v>0.608695652173913</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -624,7 +624,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>0.523809523809524</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -635,7 +635,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.457627118644068</v>
+        <v>0.566666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -646,7 +646,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.5</v>
+        <v>0.608695652173913</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -657,7 +657,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.541666666666667</v>
+        <v>0.805970149253731</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -668,7 +668,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.608695652173913</v>
+        <v>0.511627906976744</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -679,7 +679,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.5</v>
+        <v>0.580645161290323</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -690,7 +690,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.421052631578947</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -712,7 +712,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.6</v>
+        <v>0.423076923076923</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -723,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.608695652173913</v>
+        <v>0.478260869565217</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -734,7 +734,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.478260869565217</v>
+        <v>0.695652173913043</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -745,7 +745,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.580645161290323</v>
+        <v>0.541666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -756,7 +756,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.523809523809524</v>
+        <v>0.440677966101695</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -767,7 +767,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.805970149253731</v>
+        <v>0.846153846153846</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -778,7 +778,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.514285714285714</v>
+        <v>0.470588235294118</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -789,7 +789,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.470588235294118</v>
+        <v>0.417910447761194</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -800,7 +800,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.511627906976744</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -811,7 +811,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.566666666666667</v>
+        <v>0.580645161290323</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -822,7 +822,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.440677966101695</v>
+        <v>0.792452830188679</v>
       </c>
     </row>
   </sheetData>
